--- a/database.xlsx
+++ b/database.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>a2_date</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>selected_submission_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -563,17 +568,17 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>V003</t>
+          <t>V001</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>High quality</t>
+          <t>Better bid</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2025-10-23 08:29:19</t>
+          <t>2025-10-24 11:23:13</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -583,27 +588,32 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>2025-10-24 11:23:32</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>Approved</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>2025-10-23 08:29:38</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>approved</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-10-23 08:29:48</t>
+          <t>2025-10-24 11:23:43</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>SUB006</t>
         </is>
       </c>
     </row>
@@ -689,6 +699,7 @@
           <t>2025-10-23 09:14:25</t>
         </is>
       </c>
+      <c r="R3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -969,7 +980,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1092,7 +1103,7 @@
         </is>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1169,6 +1180,82 @@
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SUB005</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>BID001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>V001</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Vendor One</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>22000</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>not faulty</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2025-10-24 10:54:49</t>
+        </is>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>SUB006</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>BID001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>V001</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Vendor One</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>made changes to proposals</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2025-10-24 11:21:15</t>
+        </is>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1182,7 +1269,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1917,6 +2004,440 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>BID001</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2025-10-24 10:54:23</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>A2 Approver</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>A2 Approver</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Reopened Bid for Modifications</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Faulty vendor</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Open for Bidding</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>BID001</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2025-10-24 10:54:53</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Vendor One</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Vendor</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Submitted Bid</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Bid Amount: 22000.0</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>BID001</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2025-10-24 10:55:19</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Admin User</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Selected Vendor &amp; Submitted for A1 Approval</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Selected Vendor: V001, Justification: not faulty vendor</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Open for Bidding</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Pending A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>BID001</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2025-10-24 10:55:31</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>A1 Approver</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>A1 Approver</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Pending A1</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Pending A2</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>BID001</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2025-10-24 10:56:13</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>A2 Approver</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>A2 Approver</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Approved - Final</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Pending A2</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>BID001</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2025-10-24 11:07:03</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>A2 Approver</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>A2 Approver</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Reopened Bid for Modifications</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>abcd</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Open for Bidding</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>BID001</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2025-10-24 11:21:15</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Vendor One</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Vendor</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Submitted Bid</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Bid Amount: 3000.0</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>BID001</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2025-10-24 11:23:14</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Admin User</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Selected Submission &amp; Submitted for A1 Approval</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Selected Submission: SUB006 (Vendor: V001), Justification: Better bid</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Open for Bidding</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Pending A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>BID001</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2025-10-24 11:23:32</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>A1 Approver</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>A1 Approver</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Pending A1</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Pending A2</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>BID001</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2025-10-24 11:23:44</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>A2 Approver</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>A2 Approver</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Approved - Final</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Pending A2</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database.xlsx
+++ b/database.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Bids" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Vendors" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="BidItems" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="VendorBids" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="History" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Bids" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Items" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buyers" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BuyerBids" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="History" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,32 +460,32 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>vendor_name</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>vendor_justification</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>created_date</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>admin_name</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>status</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>selected_vendor_id</t>
-        </is>
-      </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>selected_submission_id</t>
+          <t>selected_buyer_id</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>admin_justification</t>
+          <t>buyer_comment</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -495,35 +495,30 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>vendor_comment</t>
+          <t>a1_status</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>a1_status</t>
+          <t>a1_comment</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>a1_comment</t>
+          <t>a1_date</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>a1_date</t>
+          <t>a2_status</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>a2_status</t>
+          <t>a2_comment</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>a2_comment</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>a2_date</t>
         </is>
@@ -537,55 +532,82 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>IT Infrastructure Refresh</t>
+          <t>IT Infrastructure Upgrade</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Upgrade core networking hardware, replace end-of-life firewalls, and deploy new monitoring tooling.</t>
+          <t>Complete upgrade of data center infrastructure including servers, networking equipment, and security systems</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>250000</v>
+        <v>500000</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-09-18 09:15:23</t>
+          <t>John Smith</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Morgan Lee</t>
+          <t>Critical infrastructure upgrade required for Q1 2026. Budget approved by board.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Awaiting Vendor</t>
+          <t>2025-10-12 13:57:59</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>V003</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>B001</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>We can deliver all components within 60 days. Team of 5 engineers assigned.</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2025-10-14 13:57:59</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
+          <t>Verified buyer credentials. Timeline is acceptable.</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>2025-10-15 13:57:59</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
+          <t>Final approval granted. Budget allocated from Q1 2026 capital expenditure.</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>2025-10-16 13:57:59</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -595,87 +617,74 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Annual Facility Maintenance</t>
+          <t>Office Furniture Procurement</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Provide preventive maintenance and on-call support for all corporate facilities across three sites.</t>
+          <t>Ergonomic office furniture for 200 employees including desks, chairs, and storage units</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>175000</v>
+        <v>180000</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-08-05 14:42:10</t>
+          <t>Sarah Johnson</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Morgan Lee</t>
+          <t>New office expansion requires modern furniture. Employee wellness priority.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pending A1</t>
+          <t>2025-10-17 13:57:59</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>V002</t>
+          <t>Pending A2</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ASSIGNED</t>
+          <t>B002</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Vendor has regional technicians and fastest response commitment.</t>
+          <t>Complete catalog available. Can provide samples within 1 week. 30-day delivery guaranteed.</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2025-08-09 10:12:01</t>
+          <t>2025-10-19 13:57:59</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>We will dedicate a rotating crew with 24/7 coverage and monthly reports.</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
+          <t>Buyer has excellent track record. Pricing is competitive.</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2025-10-20 13:57:59</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
           <t>Pending</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>approved</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>2025-10-27 13:24:44</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Rejected</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>rejected</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>2025-10-27 13:24:59</t>
-        </is>
-      </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -685,87 +694,66 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Security Audit &amp; Compliance</t>
+          <t>Annual Software Licenses</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Conduct organisation-wide security audit, remediate findings, and certify compliance with ISO 27001.</t>
+          <t>Enterprise software licenses for Microsoft Office 365, Adobe Creative Cloud, and project management tools</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>95000</v>
+        <v>250000</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-07-22 11:05:47</t>
+          <t>Michael Chen</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Morgan Lee</t>
+          <t>Annual renewal required. Volume discount negotiated.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>2025-10-19 13:57:59</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>V001</t>
+          <t>Pending A1</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>ASSIGNED</t>
+          <t>B003</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Vendor completed last year’s engagement with zero findings in re-test.</t>
+          <t>Authorized reseller with best pricing. Multi-year discount available if committed now.</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2025-07-27 16:32:55</t>
+          <t>2025-10-21 13:57:59</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>We will run the audit in three waves and deliver remediation guidance within one week of findings.</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Thorough approach and clear timeline. Approved.</t>
-        </is>
-      </c>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2025-07-29 13:20:11</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>Green-lighted. Release purchase order.</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>2025-07-30 10:45:03</t>
-        </is>
-      </c>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -775,83 +763,496 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Database</t>
+          <t>Marketing Campaign Services</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>abcd</t>
+          <t>Digital marketing campaign for Q1 product launch including social media, SEO, and content creation</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>22000</v>
+        <v>120000</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-10-27 12:40:16</t>
+          <t>Emily Rodriguez</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Admin User</t>
+          <t>Product launch scheduled for January 2026. Marketing budget approved.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>2025-10-20 13:57:59</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Awaiting Buyer</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>B004</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>BID005</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Building Maintenance Contract</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Annual maintenance contract for HVAC, plumbing, electrical, and general building services</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>95000</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>David Park</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Current contract expires Dec 31. Need continuous service.</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2025-10-15 13:57:59</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>Approved</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>V001</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>ASSIGNED</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>2025-10-27 12:40:42</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>will do till 2025 q3</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>B005</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>24/7 emergency response team. Preventive maintenance schedule included.</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>2025-10-17 13:57:59</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>approved</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>2025-10-27 12:41:04</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Service level agreement reviewed and acceptable.</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2025-10-18 13:57:59</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>approved</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>2025-10-27 12:41:17</t>
-        </is>
-      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Approved. Essential service for facility operations.</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>2025-10-19 13:57:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>BID006</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cloud Infrastructure Migration</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Migration of on-premise applications to AWS cloud including architecture design and implementation</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>750000</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Lisa Thompson</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Strategic initiative to reduce infrastructure costs by 40%. Cloud-first mandate.</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2025-10-22 13:57:59</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Pending A2</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>B001</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>AWS certified team with 50+ successful migrations. 6-month project timeline with milestone payments.</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>2025-10-24 13:57:59</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Excellent technical proposal. Risk mitigation plan is comprehensive.</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025-10-25 13:57:59</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>BID007</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Corporate Training Program</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Leadership development and technical skills training for 150 employees over 6 months</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>85000</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Robert Williams</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Employee development initiative. Skills gap identified in annual review.</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2025-10-21 13:57:59</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Awaiting Buyer</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>B004</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>BID008</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Security System Upgrade</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Installation of biometric access control, surveillance cameras, and intrusion detection systems</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>320000</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Amanda Martinez</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Security audit revealed vulnerabilities. Immediate upgrade required.</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2025-10-18 13:57:59</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>B002</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Latest technology with AI-powered threat detection. Installation in 45 days with minimal disruption.</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>2025-10-20 13:57:59</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Security requirements met. Compliance with industry standards verified.</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2025-10-21 13:57:59</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Critical security upgrade approved. Fast-track implementation.</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>2025-10-22 13:57:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>BID009</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Fleet Vehicle Lease</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Lease of 25 company vehicles including sedans and SUVs for sales team</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>450000</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Christopher Lee</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sales team expansion. 3-year lease more cost-effective than purchase.</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2025-10-23 13:57:59</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Pending A1</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>B003</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Full maintenance package included. Electric vehicle options available for sustainability goals.</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>2025-10-25 13:57:59</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>BID010</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Data Analytics Platform</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Implementation of enterprise data analytics platform with BI tools and data warehouse</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>580000</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Jennifer Brown</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Data-driven decision making initiative. Executive dashboard requirement.</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2025-10-24 13:57:59</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Awaiting Buyer</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>B005</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -864,7 +1265,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -875,135 +1276,802 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>vendor_id</t>
+          <t>bid_id</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>vendor_name</t>
+          <t>item_name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>contact_email</t>
+          <t>item_description</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>contact_phone</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>password</t>
+          <t>unit</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>V001</t>
+          <t>BID001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SecureSys Solutions</t>
+          <t>Dell PowerEdge Servers</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>contact@securesys.io</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>+1-800-555-2177</t>
-        </is>
+          <t>High-performance rack servers</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>10</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>password1</t>
+          <t>units</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>V002</t>
+          <t>BID001</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Facilities First</t>
+          <t>Cisco Switches</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>hello@facilitiesfirst.co</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>+1-800-555-3398</t>
-        </is>
+          <t>48-port managed switches</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>8</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>password2</t>
+          <t>units</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>V003</t>
+          <t>BID001</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NextGen Networks</t>
+          <t>Firewall Appliances</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>sales@nextgennetworks.com</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>+1-888-555-9821</t>
-        </is>
+          <t>Enterprise-grade security</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>password3</t>
+          <t>units</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>V004</t>
+          <t>BID001</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DataGuard Analytics</t>
+          <t>UPS Systems</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>info@dataguardanalytics.com</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>+1-888-555-4104</t>
-        </is>
+          <t>Uninterruptible power supply</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>password4</t>
+          <t>units</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>BID002</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Executive Desks</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>L-shaped executive desks</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>50</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>units</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>BID002</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ergonomic Chairs</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Adjustable office chairs</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>200</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>units</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>BID002</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>File Cabinets</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>4-drawer locking cabinets</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>75</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>units</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>BID003</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Office 365 E3 Licenses</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Enterprise licenses</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>500</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>licenses</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>BID003</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Adobe Creative Cloud</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>All apps licenses</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>50</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>licenses</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>BID003</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Jira Software</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Project management tool</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>100</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>licenses</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>BID004</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Social Media Campaign</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Multi-platform strategy</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>campaign</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>BID004</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SEO Optimization</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>6-month SEO service</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>BID004</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Content Creation</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Blog posts and articles</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>50</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>pieces</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>BID005</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>HVAC Maintenance</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Quarterly servicing</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>4</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>visits/year</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>BID005</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Electrical Inspection</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Monthly inspections</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>12</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>visits/year</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>BID005</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Plumbing Services</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>On-demand repairs</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>contract</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>BID006</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>AWS Architecture Design</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Cloud infrastructure design</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>BID006</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Application Migration</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Migrate 20 applications</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>20</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>apps</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>BID006</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Training &amp; Support</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>6-month support package</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>package</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>BID007</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Leadership Workshops</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Executive coaching</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>10</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>sessions</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>BID007</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Technical Training</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Python, Cloud, DevOps</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>25</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>courses</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>BID007</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Soft Skills Training</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Communication, teamwork</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>15</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>workshops</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>BID008</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Biometric Readers</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Fingerprint access control</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>30</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>units</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>BID008</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>IP Cameras</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>4K surveillance cameras</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>50</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>units</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>BID008</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>NVR System</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Network video recorder</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>5</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>units</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>BID008</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Alarm System</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Intrusion detection</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>BID009</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Sedan Vehicles</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Mid-size sedans</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>15</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>vehicles</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>BID009</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>SUV Vehicles</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Full-size SUVs</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>10</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>vehicles</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>BID010</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Tableau Enterprise</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>BI and analytics platform</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>50</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>licenses</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>BID010</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Snowflake Warehouse</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Cloud data warehouse</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>instance</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>BID010</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ETL Development</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Data pipeline creation</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>service</t>
         </is>
       </c>
     </row>
@@ -1018,7 +2086,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1029,85 +2097,163 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>item_id</t>
+          <t>buyer_id</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>bid_id</t>
+          <t>buyer_name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>item_name</t>
+          <t>contact_email</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>item_description</t>
+          <t>contact_phone</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>quantity</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>unit</t>
+          <t>password</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ITEM001</t>
+          <t>B001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BID004</t>
+          <t>SecureSys Solutions</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>1234</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
+          <t>contact@securesys.io</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>+1-800-555-2177</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>buyer123</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ITEM002</t>
+          <t>B002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BID004</t>
+          <t>TechFlow Industries</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>cc</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1234</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
+          <t>sales@techflow.com</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>+1-800-555-3388</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>buyer123</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>B003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>GlobalTrade Corp</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>info@globaltrade.net</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>+1-800-555-4499</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>buyer123</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>B004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Innovation Partners</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>partners@innovation.com</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>+1-800-555-5500</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>buyer123</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>B005</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Prime Contractors Ltd</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>contracts@primecon.com</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>+1-800-555-6611</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>buyer123</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1121,7 +2267,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1142,12 +2288,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>vendor_id</t>
+          <t>buyer_id</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>vendor_name</t>
+          <t>buyer_name</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -1169,44 +2315,6 @@
         <is>
           <t>is_selected</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>SUB001</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>BID003</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>V001</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>SecureSys Solutions</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>91000</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Detailed breakdown of the audit programme, staffing, and remediation playbook.</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2025-07-25 12:15:44</t>
-        </is>
-      </c>
-      <c r="H2" t="b">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1220,7 +2328,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1281,22 +2389,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BID004</t>
+          <t>BID001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-10-27 12:40:16</t>
+          <t>2025-10-12 13:57:59</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Admin User</t>
+          <t>John Smith</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Admin</t>
+          <t>Vendor</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1306,13 +2414,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Created new bid: Database</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>Critical infrastructure upgrade required for Q1 2026. Budget approved by board.</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Draft</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Awaiting Vendor</t>
+          <t>Awaiting Buyer</t>
         </is>
       </c>
     </row>
@@ -1322,42 +2434,42 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BID004</t>
+          <t>BID001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-10-27 12:40:16</t>
+          <t>2025-10-12 13:57:59</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Admin User</t>
+          <t>John Smith</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Admin</t>
+          <t>Vendor</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Assigned Vendor</t>
+          <t>Assigned Buyer</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Assigned vendor SecureSys Solutions (V001)</t>
+          <t>Assigned buyer SecureSys Solutions (B001)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Awaiting Vendor</t>
+          <t>Awaiting Buyer</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Awaiting Vendor</t>
+          <t>Awaiting Buyer</t>
         </is>
       </c>
     </row>
@@ -1367,12 +2479,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BID004</t>
+          <t>BID001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-10-27 12:40:42</t>
+          <t>2025-10-14 13:57:59</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1382,7 +2494,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Vendor</t>
+          <t>Buyer</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -1392,12 +2504,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>will do till 2025 q3</t>
+          <t>We can deliver all components within 60 days. Team of 5 engineers assigned.</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Awaiting Vendor</t>
+          <t>Awaiting Buyer</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1412,12 +2524,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BID004</t>
+          <t>BID001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-10-27 12:41:04</t>
+          <t>2025-10-15 13:57:59</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1437,7 +2549,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>approved</t>
+          <t>Verified buyer credentials. Timeline is acceptable.</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1457,12 +2569,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BID004</t>
+          <t>BID001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-10-27 12:41:17</t>
+          <t>2025-10-16 13:57:59</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1482,7 +2594,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>approved</t>
+          <t>Final approval granted. Budget allocated from Q1 2026 capital expenditure.</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1507,37 +2619,37 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-10-27 13:24:44</t>
+          <t>2025-10-17 13:57:59</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A1 Approver</t>
+          <t>Sarah Johnson</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>A1 Approver</t>
+          <t>Vendor</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>Created Bid</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>approved</t>
+          <t>New office expansion requires modern furniture. Employee wellness priority.</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Pending A1</t>
+          <t>Draft</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Pending A2</t>
+          <t>Awaiting Buyer</t>
         </is>
       </c>
     </row>
@@ -1552,37 +2664,1297 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-10-27 13:24:59</t>
+          <t>2025-10-17 13:57:59</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>Sarah Johnson</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Vendor</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Assigned Buyer</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Assigned buyer TechFlow Industries (B002)</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Awaiting Buyer</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Awaiting Buyer</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>BID002</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2025-10-19 13:57:59</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>TechFlow Industries</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Buyer</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Submitted for A1 Approval</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Complete catalog available. Can provide samples within 1 week. 30-day delivery guaranteed.</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Awaiting Buyer</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Pending A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>BID002</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2025-10-20 13:57:59</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>A1 Approver</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>A1 Approver</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Buyer has excellent track record. Pricing is competitive.</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Pending A1</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Pending A2</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>BID003</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2025-10-19 13:57:59</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Michael Chen</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Vendor</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Created Bid</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Annual renewal required. Volume discount negotiated.</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Draft</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Awaiting Buyer</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>BID003</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2025-10-19 13:57:59</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Michael Chen</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Vendor</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Assigned Buyer</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Assigned buyer GlobalTrade Corp (B003)</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Awaiting Buyer</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Awaiting Buyer</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>BID003</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2025-10-21 13:57:59</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>GlobalTrade Corp</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Buyer</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Submitted for A1 Approval</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Authorized reseller with best pricing. Multi-year discount available if committed now.</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Awaiting Buyer</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Pending A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>BID004</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2025-10-20 13:57:59</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Emily Rodriguez</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Vendor</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Created Bid</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Product launch scheduled for January 2026. Marketing budget approved.</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Draft</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Awaiting Buyer</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>BID004</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2025-10-20 13:57:59</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Emily Rodriguez</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Vendor</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Assigned Buyer</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Assigned buyer Innovation Partners (B004)</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Awaiting Buyer</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Awaiting Buyer</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>BID005</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2025-10-15 13:57:59</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>David Park</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Vendor</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Created Bid</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Current contract expires Dec 31. Need continuous service.</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Draft</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Awaiting Buyer</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>BID005</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2025-10-15 13:57:59</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>David Park</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Vendor</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Assigned Buyer</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Assigned buyer Prime Contractors Ltd (B005)</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Awaiting Buyer</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Awaiting Buyer</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>BID005</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2025-10-17 13:57:59</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Prime Contractors Ltd</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Buyer</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Submitted for A1 Approval</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>24/7 emergency response team. Preventive maintenance schedule included.</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Awaiting Buyer</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Pending A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>BID005</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2025-10-18 13:57:59</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>A1 Approver</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>A1 Approver</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Service level agreement reviewed and acceptable.</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Pending A1</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Pending A2</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>BID005</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2025-10-19 13:57:59</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>A2 Approver</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>A2 Approver</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Rejected - Sent back to A1</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>rejected</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Approved - Final</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Approved. Essential service for facility operations.</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Pending A2</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>BID006</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2025-10-22 13:57:59</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Lisa Thompson</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Vendor</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Created Bid</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Strategic initiative to reduce infrastructure costs by 40%. Cloud-first mandate.</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Draft</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Awaiting Buyer</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>BID006</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2025-10-22 13:57:59</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Lisa Thompson</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Vendor</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Assigned Buyer</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Assigned buyer SecureSys Solutions (B001)</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Awaiting Buyer</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Awaiting Buyer</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>BID006</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2025-10-24 13:57:59</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>SecureSys Solutions</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Buyer</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Submitted for A1 Approval</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>AWS certified team with 50+ successful migrations. 6-month project timeline with milestone payments.</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Awaiting Buyer</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>Pending A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>BID006</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2025-10-25 13:57:59</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>A1 Approver</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>A1 Approver</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Excellent technical proposal. Risk mitigation plan is comprehensive.</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Pending A1</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Pending A2</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>BID007</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2025-10-21 13:57:59</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Robert Williams</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Vendor</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Created Bid</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Employee development initiative. Skills gap identified in annual review.</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Draft</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Awaiting Buyer</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>BID007</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2025-10-21 13:57:59</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Robert Williams</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Vendor</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Assigned Buyer</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Assigned buyer Innovation Partners (B004)</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Awaiting Buyer</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Awaiting Buyer</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>BID008</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2025-10-18 13:57:59</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Amanda Martinez</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Vendor</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Created Bid</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Security audit revealed vulnerabilities. Immediate upgrade required.</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Draft</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Awaiting Buyer</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>BID008</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2025-10-18 13:57:59</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Amanda Martinez</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Vendor</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Assigned Buyer</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Assigned buyer TechFlow Industries (B002)</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Awaiting Buyer</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Awaiting Buyer</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>BID008</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2025-10-20 13:57:59</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>TechFlow Industries</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Buyer</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Submitted for A1 Approval</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Latest technology with AI-powered threat detection. Installation in 45 days with minimal disruption.</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Awaiting Buyer</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Pending A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>BID008</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2025-10-21 13:57:59</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>A1 Approver</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>A1 Approver</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Security requirements met. Compliance with industry standards verified.</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Pending A1</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Pending A2</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>BID008</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2025-10-22 13:57:59</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>A2 Approver</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>A2 Approver</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Approved - Final</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Critical security upgrade approved. Fast-track implementation.</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Pending A2</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>BID009</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2025-10-23 13:57:59</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Christopher Lee</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Vendor</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Created Bid</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Sales team expansion. 3-year lease more cost-effective than purchase.</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Draft</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Awaiting Buyer</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>BID009</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2025-10-23 13:57:59</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Christopher Lee</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Vendor</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Assigned Buyer</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Assigned buyer GlobalTrade Corp (B003)</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Awaiting Buyer</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Awaiting Buyer</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>BID009</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2025-10-25 13:57:59</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>GlobalTrade Corp</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Buyer</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Submitted for A1 Approval</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Full maintenance package included. Electric vehicle options available for sustainability goals.</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Awaiting Buyer</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Pending A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>BID010</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2025-10-24 13:57:59</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Jennifer Brown</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Vendor</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Created Bid</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Data-driven decision making initiative. Executive dashboard requirement.</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Draft</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Awaiting Buyer</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>BID010</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2025-10-24 13:57:59</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Jennifer Brown</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Vendor</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Assigned Buyer</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Assigned buyer Prime Contractors Ltd (B005)</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Awaiting Buyer</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Awaiting Buyer</t>
         </is>
       </c>
     </row>

--- a/database.xlsx
+++ b/database.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -613,6 +613,92 @@
       <c r="R2" t="inlineStr">
         <is>
           <t>2025-10-27 14:13:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>BID002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Database2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>provisioning of mysql</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2025-10-27 14:28:02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Admin User</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>V002</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>ASSIGNED</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2025-10-27 14:31:47</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>will be done by dec 2025</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>2025-10-27 14:31:58</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>good proposal approved</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>2025-10-27 14:32:16</t>
         </is>
       </c>
     </row>
@@ -724,15 +810,11 @@
           <t>b3@gmail.com</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>999999999</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>123456</t>
-        </is>
+      <c r="D4" t="n">
+        <v>999999999</v>
+      </c>
+      <c r="E4" t="n">
+        <v>123456</v>
       </c>
     </row>
   </sheetData>
@@ -858,7 +940,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1129,6 +1211,317 @@
         </is>
       </c>
       <c r="I6" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>BID002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2025-10-27 14:28:02</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Admin User</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Vendor</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Created Bid</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Created new bid: Database2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Awaiting Buyer</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>BID002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2025-10-27 14:28:02</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Admin User</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Vendor</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Assigned Buyer</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Assigned buyer b2 (V002)</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Awaiting Buyer</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Awaiting Buyer</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>BID002</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2025-10-27 14:30:56</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Buyer</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Submitted for A1 Approval</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>can provision both in the given budget by 2026</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Awaiting Buyer</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Pending A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>BID002</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2025-10-27 14:31:22</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>A1 Approver</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>A1 Approver</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>wanted timeline of dec 2025</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Pending A1</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Awaiting Buyer</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>BID002</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2025-10-27 14:31:47</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Buyer</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Submitted for A1 Approval</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>will be done by dec 2025</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Awaiting Buyer</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Pending A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>BID002</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2025-10-27 14:31:58</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>A1 Approver</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>A1 Approver</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Pending A1</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Pending A2</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>BID002</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2025-10-27 14:32:16</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>A2 Approver</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>A2 Approver</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Approved - Final</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>good proposal approved</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Pending A2</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -1145,7 +1538,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1213,6 +1606,62 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ITEM002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>BID002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>mysql</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>mysql database</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ITEM003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>BID002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>postgres</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>posgresql</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database.xlsx
+++ b/database.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,11 +538,6 @@
           <t>a2_date</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>buyer_comment</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -565,7 +560,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-10-28 15:03:11</t>
+          <t>2025-10-28 15:17:32</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -575,21 +570,13 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>Awaiting Buyer</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>ASSIGNED</t>
-        </is>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>2025-10-28 15:06:41</t>
-        </is>
-      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
           <t>Initial bid created for office furniture requirements</t>
@@ -602,39 +589,18 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>approved</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>2025-10-28 15:07:02</t>
-        </is>
-      </c>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>approved</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>2025-10-28 15:07:13</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>approved for quality solutions</t>
-        </is>
-      </c>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1241,7 +1207,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1307,7 +1273,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-10-28 15:03:11</t>
+          <t>2025-10-28 15:17:32</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1348,7 +1314,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-10-28 15:03:11</t>
+          <t>2025-10-28 15:17:32</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1379,141 +1345,6 @@
       <c r="I3" t="inlineStr">
         <is>
           <t>Awaiting Buyer</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>BID001</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2025-10-28 15:06:42</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>John Smith - Procurement Manager</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Buyer</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Submitted for A1 Approval</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>approved for quality solutions</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Awaiting Buyer</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Pending A1</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>BID001</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2025-10-28 15:07:02</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>A1 Approver</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>A1 Approver</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>approved</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Pending A1</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Pending A2</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>BID001</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2025-10-28 15:07:14</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>A2 Approver</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>A2 Approver</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Approved - Final</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>approved</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Pending A2</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Approved</t>
         </is>
       </c>
     </row>
@@ -1690,7 +1521,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-10-28 15:03:11</t>
+          <t>2025-10-28 15:17:32</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1547,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-10-28 15:03:11</t>
+          <t>2025-10-28 15:17:32</t>
         </is>
       </c>
     </row>
@@ -1742,7 +1573,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-10-28 15:03:11</t>
+          <t>2025-10-28 15:17:32</t>
         </is>
       </c>
     </row>
@@ -1768,7 +1599,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-10-28 15:03:11</t>
+          <t>2025-10-28 15:17:32</t>
         </is>
       </c>
     </row>
